--- a/interview/interviewPlan.xlsx
+++ b/interview/interviewPlan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>epoll</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>settimer</t>
+  </si>
+  <si>
+    <t>linklist</t>
+  </si>
+  <si>
+    <t>merge 2 linklists without using the third linklist</t>
+  </si>
+  <si>
+    <t>doing the practice</t>
   </si>
 </sst>
 </file>
@@ -52,12 +61,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,8 +87,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,14 +370,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D8"/>
+  <dimension ref="B1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
@@ -388,6 +410,14 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/interview/interviewPlan.xlsx
+++ b/interview/interviewPlan.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>epoll</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>doing the practice</t>
+  </si>
+  <si>
+    <t>memory leak</t>
+  </si>
+  <si>
+    <t>valgrind</t>
+  </si>
+  <si>
+    <t>arm assemble</t>
   </si>
 </sst>
 </file>
@@ -370,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D9"/>
+  <dimension ref="B1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,6 +429,19 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/interview/interviewPlan.xlsx
+++ b/interview/interviewPlan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>epoll</t>
   </si>
@@ -55,16 +55,39 @@
   </si>
   <si>
     <t>arm assemble</t>
+  </si>
+  <si>
+    <t>recursion</t>
+  </si>
+  <si>
+    <t>thread VS process</t>
+  </si>
+  <si>
+    <t>what threads/process share in general?</t>
+  </si>
+  <si>
+    <t>how big is a stack in a process/thread?</t>
+  </si>
+  <si>
+    <t>does thread have stack?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,9 +119,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,70 +403,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D13"/>
+  <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/interview/interviewPlan.xlsx
+++ b/interview/interviewPlan.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,11 +402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
